--- a/data/case1/13/Q1_13.xlsx
+++ b/data/case1/13/Q1_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.096428861853688375</v>
+        <v>0.07640048516454101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999315643038</v>
+        <v>0.016559779385612927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999457140945</v>
+        <v>-0.0039999999511142192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998979793929</v>
+        <v>-0.0079999999072501993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999518617315</v>
+        <v>-0.0029999999563505853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999576540972</v>
+        <v>-0.001999999960380805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999866828535</v>
+        <v>-0.0099999998771291843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998667232859</v>
+        <v>-0.0099999998765811782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999588504735</v>
+        <v>-0.0019999999602662299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999613045105</v>
+        <v>-0.0019999999618676156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999502869912</v>
+        <v>-0.0029999999518119935</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999455664899</v>
+        <v>-0.0034999999473628307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999522344893</v>
+        <v>-0.0034999999523490644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999041220349</v>
+        <v>-0.007999999907935873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.040187744006700221</v>
+        <v>-0.00099999998329636242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.00199999997427458</v>
+        <v>0.035900829050090177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999724840123</v>
+        <v>-0.0019999999755446751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999495208272</v>
+        <v>-0.0039999999544866327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999539608311</v>
+        <v>-0.0039999999579412027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.006314133747938655</v>
+        <v>-0.0039999999542210674</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999514073181</v>
+        <v>-0.0039999999537077002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999509578998</v>
+        <v>-0.0039999999533018027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999301206799</v>
+        <v>0.0087829678395010546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999753144593</v>
+        <v>-0.019999999775739852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999749423125</v>
+        <v>-0.019999999772267962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999516328586</v>
+        <v>-0.002499999954761023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999512003157</v>
+        <v>-0.00249999995422856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999553306225</v>
+        <v>0.059818684529216348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.080549132587364625</v>
+        <v>-0.0069999998936767227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999292176032</v>
+        <v>-0.0599999993409841</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998838987665</v>
+        <v>-0.0069999998879364256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998491124842</v>
+        <v>0.012366786453140932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999165587496</v>
+        <v>-0.0039999999191113744</v>
       </c>
     </row>
   </sheetData>
